--- a/artfynd/A 5642-2019.xlsx
+++ b/artfynd/A 5642-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>58806639</v>
+        <v>58806600</v>
       </c>
       <c r="B2" t="n">
-        <v>56411</v>
+        <v>98536</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,39 +692,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100049</v>
+        <v>1853</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mosippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pulsatilla vernalis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(L.) Mill.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>obs i häcktid, lämplig biotop</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Hultsfred, 500 m O betongindustrin, Sm</t>
@@ -779,8 +771,13 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Ej återfunnen. För tjockt mosstäcke på lokalen.</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
@@ -788,6 +785,11 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>tallskog</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
@@ -796,17 +798,17 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Calle Ljungberg</t>
+          <t>Calle Ljungberg, Gunvald Bruce, Mats Halling</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>74858454</v>
+        <v>58806639</v>
       </c>
       <c r="B3" t="n">
-        <v>98536</v>
+        <v>56411</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -815,41 +817,52 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1853</v>
+        <v>100049</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mosippa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pulsatilla vernalis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Mill.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>obs i häcktid, lämplig biotop</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Betongindustrin 500 m O, Sm</t>
+          <t>Hultsfred, 500 m O betongindustrin, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>550862.8159001897</v>
+        <v>550867.5962778389</v>
       </c>
       <c r="R3" t="n">
-        <v>6376947.64415537</v>
+        <v>6376952.536148308</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -873,7 +886,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1960-01-01</t>
+          <t>2016-04-23</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -883,17 +896,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1960-12-31</t>
+          <t>2016-04-23</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Smålands flora 2007: KOO: 6G5a 3526. SOM: Pulsatilla vernalis. LEG: Gunvald Bruce. KOM: 3 ex</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -905,23 +913,140 @@
       <c r="AG3" t="b">
         <v>0</v>
       </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>Tallmark, 8 m S skogsbilväg</t>
-        </is>
-      </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
+          <t>Calle Ljungberg</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Calle Ljungberg</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>74858454</v>
+      </c>
+      <c r="B4" t="n">
+        <v>98536</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>EN</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1853</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mosippa</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Pulsatilla vernalis</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(L.) Mill.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Betongindustrin 500 m O, Sm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>550862.8159001897</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6376947.64415537</v>
+      </c>
+      <c r="S4" t="n">
+        <v>50</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Kalmar</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Hultsfred</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Småland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Vena</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>1960-01-01</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>1960-12-31</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Smålands flora 2007: KOO: 6G5a 3526. SOM: Pulsatilla vernalis. LEG: Gunvald Bruce. KOM: 3 ex</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Tallmark, 8 m S skogsbilväg</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
           <t>Margareta Edqvist</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
+      <c r="AX4" t="inlineStr">
         <is>
           <t>Via Margareta Edqvist</t>
         </is>
       </c>
-      <c r="AY3" t="inlineStr">
+      <c r="AY4" t="inlineStr">
         <is>
           <t>Smålands flora (1978-2007)</t>
         </is>
